--- a/dbm-ui/backend/ticket/exclusive_ticket.xlsx
+++ b/dbm-ui/backend/ticket/exclusive_ticket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="4" activeTab="7"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_mysql_exclusive" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="101">
   <si>
     <t>能否并行</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>MySQL 集群授权</t>
+  </si>
+  <si>
+    <t>MySQL 迁移升级</t>
   </si>
   <si>
     <t>Y</t>
@@ -347,7 +350,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -410,13 +413,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1144,28 +1140,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,118 +1173,115 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,14 +1415,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1748,10 +1744,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T201"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="16.8"/>
@@ -1775,7 +1771,7 @@
     <col min="20" max="20" width="11.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:20">
+    <row r="1" ht="36.75" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,1205 +1832,1309 @@
       <c r="T1" s="40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" ht="36.75" customHeight="1" spans="1:20">
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="36.75" customHeight="1" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="36.75" customHeight="1" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="36.75" customHeight="1" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="36.75" customHeight="1" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="36.75" customHeight="1" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="36.75" customHeight="1" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="36.75" customHeight="1" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="36.75" customHeight="1" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="36.75" customHeight="1" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="36.75" customHeight="1" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="36.75" customHeight="1" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="36.75" customHeight="1" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="36.75" customHeight="1" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="36.75" customHeight="1" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="36.75" customHeight="1" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:20">
+        <v>22</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="36.75" customHeight="1" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="36.75" customHeight="1" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="36.75" customHeight="1" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="36.75" customHeight="1" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="36.75" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="36.75" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="34" customHeight="1" spans="1:21">
+      <c r="A21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
+      <c r="B21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="43" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" ht="17.6" spans="1:19">
       <c r="A22" s="44"/>
@@ -6846,1495 +6946,1495 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V1" s="39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:22">
       <c r="A2" s="40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="36.75" spans="1:22">
       <c r="A3" s="40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="53.75" spans="1:22">
       <c r="A4" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="36.75" spans="1:22">
       <c r="A5" s="40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="36.75" spans="1:22">
       <c r="A6" s="40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="36.75" spans="1:22">
       <c r="A7" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R7" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="36.75" spans="1:22">
       <c r="A8" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="36.75" spans="1:22">
       <c r="A9" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V9" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="53.75" spans="1:22">
       <c r="A10" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="1:22">
       <c r="A11" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R11" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:22">
       <c r="A12" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R12" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1" spans="1:22">
       <c r="A13" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="36.75" spans="1:22">
       <c r="A14" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="36.75" spans="1:22">
       <c r="A15" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="53.75" spans="1:22">
       <c r="A16" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T16" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="53.75" spans="1:22">
       <c r="A17" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="53.75" spans="1:22">
       <c r="A18" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S18" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V18" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="53.75" spans="1:22">
       <c r="A19" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R19" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V19" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="53.75" spans="1:22">
       <c r="A20" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U20" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V20" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="53.75" spans="1:22">
       <c r="A21" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T21" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="53.75" spans="1:22">
       <c r="A22" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T22" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -8362,119 +8462,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" ht="36.75" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="36.75" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="36.75" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="36.75" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="36.75" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8499,119 +8599,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="36.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="36.75" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="36.75" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="36.75" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8626,7 +8726,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -8636,119 +8736,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="36.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="36.75" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="36.75" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="36.75" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8773,119 +8873,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="36.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="36.75" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="36.75" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="36.75" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8910,119 +9010,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="36.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="36.75" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="36.75" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="36.75" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9036,7 +9136,7 @@
   <sheetPr/>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -9062,1239 +9162,1239 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:20">
       <c r="A2" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="36.75" spans="1:20">
       <c r="A3" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="36.75" spans="1:20">
       <c r="A4" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="36.75" spans="1:20">
       <c r="A5" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="35.05" customHeight="1" spans="1:20">
       <c r="A6" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="36.75" spans="1:20">
       <c r="A7" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S7" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="36.75" spans="1:20">
       <c r="A8" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="36.75" spans="1:20">
       <c r="A9" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="36.75" spans="1:20">
       <c r="A10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="36.75" spans="1:20">
       <c r="A11" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="36.75" spans="1:20">
       <c r="A12" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S12" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="50.05" customHeight="1" spans="1:20">
       <c r="A13" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:20">
       <c r="A14" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S14" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T14" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="36.75" spans="1:20">
       <c r="A15" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S15" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T15" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="36.75" spans="1:20">
       <c r="A16" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S16" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="36.75" spans="1:20">
       <c r="A17" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="36.75" spans="1:20">
       <c r="A18" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S18" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="36.75" spans="1:20">
       <c r="A19" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R19" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="29" customHeight="1" spans="1:20">
       <c r="A20" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T20" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -10319,704 +10419,704 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="71.75" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="53.75" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="53.75" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="53.75" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="53.75" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="53.75" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="53.75" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="53.75" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="71.75" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="53.75" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="53.75" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="36.75" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="53.75" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="53.75" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/dbm-ui/backend/ticket/exclusive_ticket.xlsx
+++ b/dbm-ui/backend/ticket/exclusive_ticket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="28000" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_mysql_exclusive" sheetId="1" r:id="rId1"/>
@@ -1285,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,6 +1424,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1744,10 +1750,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="16.8"/>
@@ -1832,11 +1838,11 @@
       <c r="T1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="36.75" customHeight="1" spans="1:21">
+    <row r="2" ht="36.75" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1897,11 +1903,12 @@
       <c r="T2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="36.75" customHeight="1" spans="1:21">
+      <c r="U2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="48"/>
+    </row>
+    <row r="3" ht="36.75" customHeight="1" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1962,11 +1969,12 @@
       <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="36.75" customHeight="1" spans="1:21">
+      <c r="U3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="48"/>
+    </row>
+    <row r="4" ht="36.75" customHeight="1" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2027,11 +2035,12 @@
       <c r="T4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="36.75" customHeight="1" spans="1:21">
+      <c r="U4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="48"/>
+    </row>
+    <row r="5" ht="36.75" customHeight="1" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2095,8 +2104,9 @@
       <c r="U5" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V5" s="48"/>
+    </row>
+    <row r="6" ht="36.75" customHeight="1" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2160,8 +2170,9 @@
       <c r="U6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V6" s="48"/>
+    </row>
+    <row r="7" ht="36.75" customHeight="1" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2225,8 +2236,9 @@
       <c r="U7" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V7" s="48"/>
+    </row>
+    <row r="8" ht="36.75" customHeight="1" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2290,8 +2302,9 @@
       <c r="U8" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V8" s="48"/>
+    </row>
+    <row r="9" ht="36.75" customHeight="1" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2355,8 +2368,9 @@
       <c r="U9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V9" s="48"/>
+    </row>
+    <row r="10" ht="36.75" customHeight="1" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2420,8 +2434,9 @@
       <c r="U10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V10" s="48"/>
+    </row>
+    <row r="11" ht="36.75" customHeight="1" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2485,8 +2500,9 @@
       <c r="U11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V11" s="48"/>
+    </row>
+    <row r="12" ht="36.75" customHeight="1" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2550,8 +2566,9 @@
       <c r="U12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V12" s="48"/>
+    </row>
+    <row r="13" ht="36.75" customHeight="1" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2615,8 +2632,9 @@
       <c r="U13" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V13" s="48"/>
+    </row>
+    <row r="14" ht="36.75" customHeight="1" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2680,8 +2698,9 @@
       <c r="U14" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V14" s="48"/>
+    </row>
+    <row r="15" ht="36.75" customHeight="1" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2745,8 +2764,9 @@
       <c r="U15" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" ht="36.75" customHeight="1" spans="1:21">
+      <c r="V15" s="48"/>
+    </row>
+    <row r="16" ht="36.75" customHeight="1" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2810,6 +2830,7 @@
       <c r="U16" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="V16" s="48"/>
     </row>
     <row r="17" ht="36.75" customHeight="1" spans="1:21">
       <c r="A17" s="1" t="s">
@@ -3072,7 +3093,7 @@
       </c>
     </row>
     <row r="21" ht="34" customHeight="1" spans="1:21">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="43" t="s">
